--- a/Balciunas_Classification_IFs_EA_en_2014_Geoclip.xlsx
+++ b/Balciunas_Classification_IFs_EA_en_2014_Geoclip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Slava\Desktop\Конф_весна_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627D71E3-5CCD-43B5-9B20-70636E53D837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176E7607-F8DF-4C55-B803-CC36400EFB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="615" windowWidth="13560" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
